--- a/apps/condo/public/import/meter/es/meter-import-example.xlsx
+++ b/apps/condo/public/import/meter/es/meter-import-example.xlsx
@@ -73,7 +73,7 @@
     <t>Automático</t>
   </si>
   <si>
-    <t>Fecha de clausura</t>
+    <t>Fecha de desmantelamiento</t>
   </si>
   <si>
     <t>Av. de la Victoria, 27, Madrid</t>
@@ -151,7 +151,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -268,31 +274,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="62" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="62" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -514,12 +520,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -551,10 +557,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -793,12 +799,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1102,10 +1108,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1367,7 +1373,7 @@
     <col min="13" max="18" width="12.6719" style="1" customWidth="1"/>
     <col min="19" max="19" width="25.3516" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.6719" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1719" style="1" customWidth="1"/>
     <col min="22" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
